--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81808\Ruby\TrainingMana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EAF60E-FD03-4563-B05A-87350F006A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B74E5E-8252-4679-8CBA-49478B1EC93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -238,10 +228,7 @@
     <t>設定したユーザーのIDを入力
 ①数字2桁のみ</t>
     <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
+      <t>セッテイニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,6 +375,155 @@
     </rPh>
     <rPh sb="98" eb="101">
       <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通の注意事項</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①トレーニング名は、データベース？に登録してあるトレーニング名から取得する
+</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング周期
+入力画面</t>
+    <rPh sb="6" eb="8">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング周期入力窓</t>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクマド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何日でトレーニングメニューを1週するか記入</t>
+    <rPh sb="0" eb="2">
+      <t>ナンニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日ごとのトレーニング内容入力画面</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング内容入力窓</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トレーニング周期入力画面」で入力した日数分だけ入力窓が表示され、何のトレーニングを行うか記入
+※トレーニング名は、プルダウンからｑ選択</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニングパターン
+管理画面</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面分類</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,12 +577,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -732,16 +874,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.19921875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="1"/>
@@ -749,144 +891,200 @@
   <sheetData>
     <row r="2" spans="2:4" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="150.6" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="109.8" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="150.6" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="109.8" customHeight="1">
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B14" s="5"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B15" s="5"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B16" s="5"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B17" s="5"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="98.4" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="98.4" customHeight="1">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" ht="37.200000000000003" customHeight="1">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" ht="37.200000000000003" customHeight="1">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" ht="37.200000000000003" customHeight="1">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" ht="37.200000000000003" customHeight="1">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" ht="37.200000000000003" customHeight="1">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" ht="37.200000000000003" customHeight="1">
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="37.200000000000003" customHeight="1">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" ht="37.200000000000003" customHeight="1">
+    <row r="22" spans="2:4" ht="37.200000000000003" customHeight="1">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4" ht="37.200000000000003" customHeight="1">
+    <row r="23" spans="2:4" ht="37.200000000000003" customHeight="1">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" ht="37.200000000000003" customHeight="1">
+    <row r="24" spans="2:4" ht="37.200000000000003" customHeight="1">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" ht="37.200000000000003" customHeight="1">
+    <row r="25" spans="2:4" ht="37.200000000000003" customHeight="1">
       <c r="D25" s="3"/>
     </row>
+    <row r="26" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" ht="37.200000000000003" customHeight="1">
+      <c r="D30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
